--- a/KBS/report/DiscontinueClub-Run0.xlsx
+++ b/KBS/report/DiscontinueClub-Run0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Element with ID :hlAddClub is found and clicked successfully..</t>
   </si>
   <si>
-    <t xml:space="preserve">Element with id :txtClubName is found and value :Club_891 entered successfully..</t>
+    <t xml:space="preserve">Element with id :txtClubName is found and value :Club_488 entered successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">Element with id :ddlClubType is found and Visible Text :Lions Club selected successfully..</t>
@@ -137,40 +137,10 @@
     <t xml:space="preserve">Element with ID :cbStatusAction_Submit is found and clicked successfully..</t>
   </si>
   <si>
-    <t xml:space="preserve">Club application moved to DG Authorization status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with text :Go to Application is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :cbStatusAction_Discontinue is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with id :txtDiscontinueNote is found and value :Test Comment entered successfully..</t>
-  </si>
-  <si>
     <t xml:space="preserve">Driver could not be found !!!</t>
   </si>
   <si>
     <t xml:space="preserve">FAILURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The club NameClub_891is not Discontinued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :cbStatusAction_Continue is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver could not be found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The club NameClub_891is removed from Discontinued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">The application is closed successfully..</t>
@@ -646,10 +616,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -657,152 +627,9 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
         <v>4</v>
       </c>
     </row>

--- a/KBS/report/DiscontinueClub-Run0.xlsx
+++ b/KBS/report/DiscontinueClub-Run0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Element with ID :hlAddClub is found and clicked successfully..</t>
   </si>
   <si>
-    <t xml:space="preserve">Element with id :txtClubName is found and value :Club_891 entered successfully..</t>
+    <t xml:space="preserve">Element with id :txtClubName is found and value :Club_155 entered successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">Element with id :ddlClubType is found and Visible Text :Lions Club selected successfully..</t>
@@ -149,28 +149,25 @@
     <t xml:space="preserve">Element with id :txtDiscontinueNote is found and value :Test Comment entered successfully..</t>
   </si>
   <si>
+    <t xml:space="preserve">The club NameClub_155is not Discontinued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :cbStatusAction_Continue is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver could not be found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILURE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Driver could not be found !!!</t>
   </si>
   <si>
-    <t xml:space="preserve">FAILURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The club NameClub_891is not Discontinued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :cbStatusAction_Continue is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver could not be found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The club NameClub_891is removed from Discontinued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
+    <t xml:space="preserve">The club NameClub_155is removed from Discontinued</t>
   </si>
   <si>
     <t xml:space="preserve">The application is closed successfully..</t>
@@ -701,10 +698,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -712,10 +709,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -734,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -745,10 +742,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -756,10 +753,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
@@ -789,10 +786,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53">
@@ -800,7 +797,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>

--- a/KBS/report/DiscontinueClub-Run0.xlsx
+++ b/KBS/report/DiscontinueClub-Run0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Element with ID :hlAddClub is found and clicked successfully..</t>
   </si>
   <si>
-    <t xml:space="preserve">Element with id :txtClubName is found and value :Club_155 entered successfully..</t>
+    <t xml:space="preserve">Element with id :txtClubName is found and value :Club_426 entered successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">Element with id :ddlClubType is found and Visible Text :Lions Club selected successfully..</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Element with id :txtDiscontinueNote is found and value :Test Comment entered successfully..</t>
   </si>
   <si>
-    <t xml:space="preserve">The club NameClub_155is not Discontinued</t>
+    <t xml:space="preserve">The club NameClub_426is not Discontinued</t>
   </si>
   <si>
     <t xml:space="preserve">Fail</t>
@@ -167,7 +167,10 @@
     <t xml:space="preserve">Driver could not be found !!!</t>
   </si>
   <si>
-    <t xml:space="preserve">The club NameClub_155is removed from Discontinued</t>
+    <t xml:space="preserve">The club NameClub_426is removed from Discontinued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">The application is closed successfully..</t>
@@ -786,10 +789,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -797,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
